--- a/Odds-Data-Clean/2015-16.xlsx
+++ b/Odds-Data-Clean/2015-16.xlsx
@@ -20957,7 +20957,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2015-16-101</t>
+          <t>2015-16-0101</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2015-16-101</t>
+          <t>2015-16-0101</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -21041,7 +21041,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2015-16-101</t>
+          <t>2015-16-0101</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2015-16-101</t>
+          <t>2015-16-0101</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2015-16-101</t>
+          <t>2015-16-0101</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -21209,7 +21209,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -21251,7 +21251,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -21545,7 +21545,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2015-16-102</t>
+          <t>2015-16-0102</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2015-16-103</t>
+          <t>2015-16-0103</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2015-16-103</t>
+          <t>2015-16-0103</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -21713,7 +21713,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2015-16-103</t>
+          <t>2015-16-0103</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2015-16-103</t>
+          <t>2015-16-0103</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2015-16-103</t>
+          <t>2015-16-0103</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -22049,7 +22049,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -22217,7 +22217,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2015-16-104</t>
+          <t>2015-16-0104</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -22259,7 +22259,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2015-16-105</t>
+          <t>2015-16-0105</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2015-16-105</t>
+          <t>2015-16-0105</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2015-16-105</t>
+          <t>2015-16-0105</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2015-16-105</t>
+          <t>2015-16-0105</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -22427,7 +22427,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -22679,7 +22679,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -22763,7 +22763,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2015-16-106</t>
+          <t>2015-16-0106</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2015-16-107</t>
+          <t>2015-16-0107</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2015-16-107</t>
+          <t>2015-16-0107</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -22973,7 +22973,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2015-16-107</t>
+          <t>2015-16-0107</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2015-16-107</t>
+          <t>2015-16-0107</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -23099,7 +23099,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -23141,7 +23141,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -23225,7 +23225,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -23267,7 +23267,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2015-16-108</t>
+          <t>2015-16-0108</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -23603,7 +23603,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -23729,7 +23729,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2015-16-109</t>
+          <t>2015-16-0109</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -23813,7 +23813,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -24023,7 +24023,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -24107,7 +24107,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2015-16-110</t>
+          <t>2015-16-0110</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2015-16-111</t>
+          <t>2015-16-0111</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2015-16-111</t>
+          <t>2015-16-0111</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2015-16-111</t>
+          <t>2015-16-0111</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -24569,7 +24569,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2015-16-112</t>
+          <t>2015-16-0112</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -24653,7 +24653,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -24947,7 +24947,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -24989,7 +24989,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2015-16-113</t>
+          <t>2015-16-0113</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -25031,7 +25031,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -25115,7 +25115,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2015-16-114</t>
+          <t>2015-16-0114</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -25409,7 +25409,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -25493,7 +25493,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2015-16-115</t>
+          <t>2015-16-0115</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -25913,7 +25913,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2015-16-116</t>
+          <t>2015-16-0116</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -25997,7 +25997,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2015-16-117</t>
+          <t>2015-16-0117</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2015-16-117</t>
+          <t>2015-16-0117</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2015-16-117</t>
+          <t>2015-16-0117</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2015-16-117</t>
+          <t>2015-16-0117</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -26165,7 +26165,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2015-16-117</t>
+          <t>2015-16-0117</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -26291,7 +26291,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -26375,7 +26375,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -26543,7 +26543,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2015-16-118</t>
+          <t>2015-16-0118</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2015-16-119</t>
+          <t>2015-16-0119</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -26669,7 +26669,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2015-16-119</t>
+          <t>2015-16-0119</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2015-16-119</t>
+          <t>2015-16-0119</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2015-16-119</t>
+          <t>2015-16-0119</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -26921,7 +26921,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -27047,7 +27047,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2015-16-120</t>
+          <t>2015-16-0120</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2015-16-121</t>
+          <t>2015-16-0121</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2015-16-121</t>
+          <t>2015-16-0121</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2015-16-121</t>
+          <t>2015-16-0121</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2015-16-121</t>
+          <t>2015-16-0121</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -27425,7 +27425,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2015-16-121</t>
+          <t>2015-16-0121</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -27593,7 +27593,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -27677,7 +27677,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -27719,7 +27719,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2015-16-122</t>
+          <t>2015-16-0122</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -27887,7 +27887,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -27929,7 +27929,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -27971,7 +27971,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -28055,7 +28055,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2015-16-123</t>
+          <t>2015-16-0123</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2015-16-124</t>
+          <t>2015-16-0124</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -28223,7 +28223,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2015-16-124</t>
+          <t>2015-16-0124</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -28265,7 +28265,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2015-16-124</t>
+          <t>2015-16-0124</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -28307,7 +28307,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2015-16-124</t>
+          <t>2015-16-0124</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -28433,7 +28433,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -28475,7 +28475,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -28643,7 +28643,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2015-16-125</t>
+          <t>2015-16-0125</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -28727,7 +28727,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2015-16-126</t>
+          <t>2015-16-0126</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -29063,7 +29063,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -29105,7 +29105,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -29189,7 +29189,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -29231,7 +29231,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2015-16-127</t>
+          <t>2015-16-0127</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -29567,7 +29567,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2015-16-128</t>
+          <t>2015-16-0128</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -29735,7 +29735,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -29819,7 +29819,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -29987,7 +29987,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2015-16-129</t>
+          <t>2015-16-0129</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -30113,7 +30113,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -30197,7 +30197,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2015-16-130</t>
+          <t>2015-16-0130</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -30575,7 +30575,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2015-16-131</t>
+          <t>2015-16-0131</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -30659,7 +30659,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -30827,7 +30827,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2015-16-201</t>
+          <t>2015-16-0201</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2015-16-202</t>
+          <t>2015-16-0202</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2015-16-202</t>
+          <t>2015-16-0202</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -31079,7 +31079,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2015-16-202</t>
+          <t>2015-16-0202</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -31121,7 +31121,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2015-16-202</t>
+          <t>2015-16-0202</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2015-16-202</t>
+          <t>2015-16-0202</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -31205,7 +31205,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -31373,7 +31373,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -31415,7 +31415,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -31457,7 +31457,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -31583,7 +31583,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2015-16-203</t>
+          <t>2015-16-0203</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -31667,7 +31667,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2015-16-204</t>
+          <t>2015-16-0204</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -31709,7 +31709,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2015-16-204</t>
+          <t>2015-16-0204</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -31751,7 +31751,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2015-16-204</t>
+          <t>2015-16-0204</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2015-16-204</t>
+          <t>2015-16-0204</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -31835,7 +31835,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -31877,7 +31877,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -31961,7 +31961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -32003,7 +32003,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -32129,7 +32129,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2015-16-205</t>
+          <t>2015-16-0205</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -32297,7 +32297,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -32381,7 +32381,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -32423,7 +32423,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -32507,7 +32507,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -32591,7 +32591,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2015-16-206</t>
+          <t>2015-16-0206</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2015-16-207</t>
+          <t>2015-16-0207</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -32717,7 +32717,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2015-16-207</t>
+          <t>2015-16-0207</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -32759,7 +32759,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2015-16-207</t>
+          <t>2015-16-0207</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2015-16-207</t>
+          <t>2015-16-0207</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -32843,7 +32843,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -32885,7 +32885,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -32969,7 +32969,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -33179,7 +33179,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2015-16-208</t>
+          <t>2015-16-0208</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2015-16-209</t>
+          <t>2015-16-0209</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2015-16-209</t>
+          <t>2015-16-0209</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2015-16-209</t>
+          <t>2015-16-0209</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2015-16-209</t>
+          <t>2015-16-0209</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2015-16-209</t>
+          <t>2015-16-0209</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -33515,7 +33515,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -33557,7 +33557,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -33683,7 +33683,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -33725,7 +33725,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -33767,7 +33767,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -33851,7 +33851,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -33893,7 +33893,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2015-16-210</t>
+          <t>2015-16-0210</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -33977,7 +33977,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2015-16-211</t>
+          <t>2015-16-0211</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2015-16-211</t>
+          <t>2015-16-0211</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -34061,7 +34061,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2015-16-218</t>
+          <t>2015-16-0218</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2015-16-218</t>
+          <t>2015-16-0218</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2015-16-218</t>
+          <t>2015-16-0218</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -34187,7 +34187,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -34313,7 +34313,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -34481,7 +34481,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -34649,7 +34649,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -34733,7 +34733,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2015-16-219</t>
+          <t>2015-16-0219</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -34775,7 +34775,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2015-16-220</t>
+          <t>2015-16-0220</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -34817,7 +34817,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2015-16-220</t>
+          <t>2015-16-0220</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -34859,7 +34859,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2015-16-220</t>
+          <t>2015-16-0220</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2015-16-220</t>
+          <t>2015-16-0220</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -34943,7 +34943,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -34985,7 +34985,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -35111,7 +35111,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -35153,7 +35153,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -35237,7 +35237,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -35279,7 +35279,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2015-16-221</t>
+          <t>2015-16-0221</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -35363,7 +35363,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -35531,7 +35531,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -35573,7 +35573,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2015-16-222</t>
+          <t>2015-16-0222</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -35657,7 +35657,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2015-16-223</t>
+          <t>2015-16-0223</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2015-16-223</t>
+          <t>2015-16-0223</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2015-16-223</t>
+          <t>2015-16-0223</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -35783,7 +35783,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2015-16-223</t>
+          <t>2015-16-0223</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -35825,7 +35825,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2015-16-223</t>
+          <t>2015-16-0223</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -35909,7 +35909,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -35993,7 +35993,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -36077,7 +36077,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2015-16-224</t>
+          <t>2015-16-0224</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -36329,7 +36329,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -36497,7 +36497,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2015-16-225</t>
+          <t>2015-16-0225</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -36539,7 +36539,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -36665,7 +36665,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -36833,7 +36833,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2015-16-226</t>
+          <t>2015-16-0226</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -37043,7 +37043,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -37127,7 +37127,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2015-16-227</t>
+          <t>2015-16-0227</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -37253,7 +37253,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -37295,7 +37295,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -37379,7 +37379,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -37421,7 +37421,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -37463,7 +37463,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2015-16-228</t>
+          <t>2015-16-0228</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -37505,7 +37505,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -37547,7 +37547,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -37673,7 +37673,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -37757,7 +37757,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2015-16-229</t>
+          <t>2015-16-0229</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -37925,7 +37925,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -37967,7 +37967,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -38009,7 +38009,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2015-16-301</t>
+          <t>2015-16-0301</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -38093,7 +38093,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -38135,7 +38135,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -38219,7 +38219,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -38261,7 +38261,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -38429,7 +38429,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2015-16-302</t>
+          <t>2015-16-0302</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -38513,7 +38513,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2015-16-303</t>
+          <t>2015-16-0303</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -38555,7 +38555,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2015-16-303</t>
+          <t>2015-16-0303</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -38597,7 +38597,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2015-16-303</t>
+          <t>2015-16-0303</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2015-16-303</t>
+          <t>2015-16-0303</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -38681,7 +38681,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -38765,7 +38765,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -38807,7 +38807,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -38849,7 +38849,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -38891,7 +38891,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2015-16-304</t>
+          <t>2015-16-0304</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -39101,7 +39101,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -39269,7 +39269,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -39311,7 +39311,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -39353,7 +39353,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2015-16-305</t>
+          <t>2015-16-0305</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -39479,7 +39479,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -39521,7 +39521,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -39563,7 +39563,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -39605,7 +39605,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -39647,7 +39647,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -39689,7 +39689,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2015-16-306</t>
+          <t>2015-16-0306</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -39773,7 +39773,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -39815,7 +39815,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -39857,7 +39857,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -39941,7 +39941,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2015-16-307</t>
+          <t>2015-16-0307</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -40151,7 +40151,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -40193,7 +40193,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -40235,7 +40235,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2015-16-308</t>
+          <t>2015-16-0308</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -40277,7 +40277,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -40319,7 +40319,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -40487,7 +40487,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -40529,7 +40529,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -40613,7 +40613,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2015-16-309</t>
+          <t>2015-16-0309</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -40655,7 +40655,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2015-16-310</t>
+          <t>2015-16-0310</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2015-16-310</t>
+          <t>2015-16-0310</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -40739,7 +40739,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2015-16-310</t>
+          <t>2015-16-0310</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -40781,7 +40781,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2015-16-310</t>
+          <t>2015-16-0310</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -40823,7 +40823,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -40907,7 +40907,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -40949,7 +40949,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -40991,7 +40991,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -41159,7 +41159,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -41201,7 +41201,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2015-16-311</t>
+          <t>2015-16-0311</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -41243,7 +41243,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -41285,7 +41285,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -41327,7 +41327,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -41411,7 +41411,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -41453,7 +41453,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -41495,7 +41495,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -41537,7 +41537,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -41579,7 +41579,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2015-16-312</t>
+          <t>2015-16-0312</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -41663,7 +41663,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2015-16-313</t>
+          <t>2015-16-0313</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -41705,7 +41705,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2015-16-313</t>
+          <t>2015-16-0313</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -41747,7 +41747,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2015-16-313</t>
+          <t>2015-16-0313</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -41789,7 +41789,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2015-16-313</t>
+          <t>2015-16-0313</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -41831,7 +41831,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2015-16-313</t>
+          <t>2015-16-0313</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -41873,7 +41873,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -41915,7 +41915,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -41957,7 +41957,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -41999,7 +41999,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -42083,7 +42083,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -42125,7 +42125,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -42167,7 +42167,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -42209,7 +42209,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2015-16-314</t>
+          <t>2015-16-0314</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -42251,7 +42251,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -42293,7 +42293,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -42335,7 +42335,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -42377,7 +42377,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -42419,7 +42419,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -42461,7 +42461,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2015-16-315</t>
+          <t>2015-16-0315</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -42503,7 +42503,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -42545,7 +42545,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -42587,7 +42587,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -42629,7 +42629,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -42713,7 +42713,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -42755,7 +42755,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -42797,7 +42797,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -42839,7 +42839,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2015-16-316</t>
+          <t>2015-16-0316</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -42881,7 +42881,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -42923,7 +42923,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -42965,7 +42965,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -43007,7 +43007,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -43049,7 +43049,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -43091,7 +43091,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -43133,7 +43133,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -43175,7 +43175,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2015-16-317</t>
+          <t>2015-16-0317</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -43217,7 +43217,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -43259,7 +43259,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -43301,7 +43301,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -43343,7 +43343,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -43385,7 +43385,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -43427,7 +43427,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -43469,7 +43469,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -43511,7 +43511,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2015-16-318</t>
+          <t>2015-16-0318</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -43553,7 +43553,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -43595,7 +43595,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -43637,7 +43637,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -43679,7 +43679,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -43721,7 +43721,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -43763,7 +43763,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -43805,7 +43805,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -43847,7 +43847,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -43889,7 +43889,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2015-16-319</t>
+          <t>2015-16-0319</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -43931,7 +43931,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -43973,7 +43973,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -44015,7 +44015,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -44057,7 +44057,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -44099,7 +44099,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -44141,7 +44141,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2015-16-320</t>
+          <t>2015-16-0320</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -44183,7 +44183,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -44225,7 +44225,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -44267,7 +44267,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -44309,7 +44309,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -44351,7 +44351,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -44393,7 +44393,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -44435,7 +44435,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -44477,7 +44477,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -44519,7 +44519,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2015-16-321</t>
+          <t>2015-16-0321</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -44561,7 +44561,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2015-16-322</t>
+          <t>2015-16-0322</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -44603,7 +44603,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2015-16-322</t>
+          <t>2015-16-0322</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -44645,7 +44645,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2015-16-322</t>
+          <t>2015-16-0322</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -44687,7 +44687,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2015-16-322</t>
+          <t>2015-16-0322</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -44729,7 +44729,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -44771,7 +44771,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -44813,7 +44813,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -44855,7 +44855,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -44897,7 +44897,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -44981,7 +44981,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -45023,7 +45023,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -45065,7 +45065,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -45107,7 +45107,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -45149,7 +45149,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -45191,7 +45191,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2015-16-323</t>
+          <t>2015-16-0323</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -45233,7 +45233,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2015-16-324</t>
+          <t>2015-16-0324</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -45275,7 +45275,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2015-16-324</t>
+          <t>2015-16-0324</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -45317,7 +45317,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2015-16-324</t>
+          <t>2015-16-0324</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -45359,7 +45359,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2015-16-324</t>
+          <t>2015-16-0324</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -45401,7 +45401,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2015-16-324</t>
+          <t>2015-16-0324</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -45443,7 +45443,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -45485,7 +45485,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -45527,7 +45527,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -45569,7 +45569,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -45611,7 +45611,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -45653,7 +45653,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -45695,7 +45695,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -45737,7 +45737,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -45779,7 +45779,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2015-16-325</t>
+          <t>2015-16-0325</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -45821,7 +45821,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -45863,7 +45863,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -45905,7 +45905,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -45947,7 +45947,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -45989,7 +45989,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -46031,7 +46031,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -46073,7 +46073,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -46157,7 +46157,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -46199,7 +46199,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2015-16-326</t>
+          <t>2015-16-0326</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -46241,7 +46241,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2015-16-327</t>
+          <t>2015-16-0327</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -46283,7 +46283,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2015-16-327</t>
+          <t>2015-16-0327</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -46325,7 +46325,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2015-16-327</t>
+          <t>2015-16-0327</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -46367,7 +46367,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2015-16-327</t>
+          <t>2015-16-0327</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -46409,7 +46409,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2015-16-327</t>
+          <t>2015-16-0327</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -46451,7 +46451,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -46493,7 +46493,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -46535,7 +46535,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -46577,7 +46577,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -46619,7 +46619,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -46661,7 +46661,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -46703,7 +46703,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -46745,7 +46745,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -46787,7 +46787,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -46829,7 +46829,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2015-16-328</t>
+          <t>2015-16-0328</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -46871,7 +46871,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -46913,7 +46913,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -46955,7 +46955,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -46997,7 +46997,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -47039,7 +47039,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -47081,7 +47081,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2015-16-329</t>
+          <t>2015-16-0329</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -47123,7 +47123,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -47165,7 +47165,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -47207,7 +47207,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -47249,7 +47249,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -47291,7 +47291,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -47333,7 +47333,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -47375,7 +47375,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -47417,7 +47417,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -47459,7 +47459,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2015-16-330</t>
+          <t>2015-16-0330</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -47501,7 +47501,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -47543,7 +47543,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -47585,7 +47585,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -47627,7 +47627,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -47669,7 +47669,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -47711,7 +47711,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2015-16-331</t>
+          <t>2015-16-0331</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -47753,7 +47753,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -47795,7 +47795,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -47837,7 +47837,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -47879,7 +47879,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -47921,7 +47921,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -47963,7 +47963,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -48005,7 +48005,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -48047,7 +48047,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -48089,7 +48089,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -48131,7 +48131,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2015-16-401</t>
+          <t>2015-16-0401</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -48173,7 +48173,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2015-16-402</t>
+          <t>2015-16-0402</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -48215,7 +48215,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2015-16-402</t>
+          <t>2015-16-0402</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -48257,7 +48257,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2015-16-402</t>
+          <t>2015-16-0402</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -48299,7 +48299,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2015-16-402</t>
+          <t>2015-16-0402</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -48341,7 +48341,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2015-16-402</t>
+          <t>2015-16-0402</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -48383,7 +48383,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -48425,7 +48425,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -48467,7 +48467,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -48509,7 +48509,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -48551,7 +48551,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -48593,7 +48593,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -48635,7 +48635,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -48677,7 +48677,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -48719,7 +48719,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -48761,7 +48761,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -48803,7 +48803,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2015-16-403</t>
+          <t>2015-16-0403</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -48845,7 +48845,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -48887,7 +48887,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -48929,7 +48929,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -48971,7 +48971,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -49013,7 +49013,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -49055,7 +49055,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -49097,7 +49097,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -49139,7 +49139,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -49181,7 +49181,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -49223,7 +49223,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -49265,7 +49265,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>2015-16-405</t>
+          <t>2015-16-0405</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -49307,7 +49307,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -49349,7 +49349,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -49391,7 +49391,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -49433,7 +49433,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -49475,7 +49475,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -49517,7 +49517,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -49559,7 +49559,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -49601,7 +49601,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>2015-16-406</t>
+          <t>2015-16-0406</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -49643,7 +49643,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2015-16-407</t>
+          <t>2015-16-0407</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -49685,7 +49685,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2015-16-407</t>
+          <t>2015-16-0407</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -49727,7 +49727,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>2015-16-407</t>
+          <t>2015-16-0407</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -49769,7 +49769,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2015-16-407</t>
+          <t>2015-16-0407</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -49811,7 +49811,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>2015-16-407</t>
+          <t>2015-16-0407</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -49853,7 +49853,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -49895,7 +49895,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -49937,7 +49937,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -49979,7 +49979,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -50021,7 +50021,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -50063,7 +50063,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -50105,7 +50105,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -50147,7 +50147,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -50189,7 +50189,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -50231,7 +50231,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>2015-16-408</t>
+          <t>2015-16-0408</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -50273,7 +50273,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -50315,7 +50315,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -50357,7 +50357,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -50399,7 +50399,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -50441,7 +50441,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -50483,7 +50483,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>2015-16-409</t>
+          <t>2015-16-0409</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -50525,7 +50525,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -50567,7 +50567,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -50609,7 +50609,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -50651,7 +50651,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -50693,7 +50693,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
@@ -50735,7 +50735,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -50777,7 +50777,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -50819,7 +50819,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -50861,7 +50861,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>2015-16-410</t>
+          <t>2015-16-0410</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -50903,7 +50903,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -50945,7 +50945,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -50987,7 +50987,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -51029,7 +51029,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -51071,7 +51071,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -51113,7 +51113,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -51155,7 +51155,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -51197,7 +51197,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -51239,7 +51239,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>2015-16-411</t>
+          <t>2015-16-0411</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -51281,7 +51281,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>2015-16-412</t>
+          <t>2015-16-0412</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -51323,7 +51323,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>2015-16-412</t>
+          <t>2015-16-0412</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -51365,7 +51365,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>2015-16-412</t>
+          <t>2015-16-0412</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -51407,7 +51407,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>2015-16-412</t>
+          <t>2015-16-0412</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -51449,7 +51449,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>2015-16-412</t>
+          <t>2015-16-0412</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -51491,7 +51491,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -51533,7 +51533,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -51575,7 +51575,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -51617,7 +51617,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -51659,7 +51659,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -51701,7 +51701,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -51743,7 +51743,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -51785,7 +51785,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -51827,7 +51827,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -51869,7 +51869,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -51911,7 +51911,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -51953,7 +51953,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -51995,7 +51995,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -52037,7 +52037,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>2015-16-413</t>
+          <t>2015-16-0413</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
@@ -52079,7 +52079,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>2015-16-416</t>
+          <t>2015-16-0416</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -52121,7 +52121,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>2015-16-416</t>
+          <t>2015-16-0416</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -52163,7 +52163,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>2015-16-416</t>
+          <t>2015-16-0416</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
@@ -52205,7 +52205,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>2015-16-416</t>
+          <t>2015-16-0416</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -52247,7 +52247,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>2015-16-417</t>
+          <t>2015-16-0417</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -52289,7 +52289,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>2015-16-417</t>
+          <t>2015-16-0417</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -52331,7 +52331,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>2015-16-417</t>
+          <t>2015-16-0417</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -52373,7 +52373,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>2015-16-417</t>
+          <t>2015-16-0417</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -52415,7 +52415,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>2015-16-418</t>
+          <t>2015-16-0418</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -52457,7 +52457,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>2015-16-418</t>
+          <t>2015-16-0418</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
@@ -52499,7 +52499,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>2015-16-418</t>
+          <t>2015-16-0418</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -52541,7 +52541,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>2015-16-419</t>
+          <t>2015-16-0419</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -52583,7 +52583,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>2015-16-419</t>
+          <t>2015-16-0419</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -52625,7 +52625,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>2015-16-420</t>
+          <t>2015-16-0420</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
@@ -52667,7 +52667,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>2015-16-420</t>
+          <t>2015-16-0420</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -52709,7 +52709,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>2015-16-420</t>
+          <t>2015-16-0420</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -52751,7 +52751,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>2015-16-421</t>
+          <t>2015-16-0421</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -52793,7 +52793,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>2015-16-421</t>
+          <t>2015-16-0421</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -52835,7 +52835,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>2015-16-421</t>
+          <t>2015-16-0421</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -52877,7 +52877,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>2015-16-422</t>
+          <t>2015-16-0422</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -52919,7 +52919,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>2015-16-422</t>
+          <t>2015-16-0422</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -52961,7 +52961,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>2015-16-422</t>
+          <t>2015-16-0422</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -53003,7 +53003,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>2015-16-423</t>
+          <t>2015-16-0423</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -53045,7 +53045,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>2015-16-423</t>
+          <t>2015-16-0423</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -53087,7 +53087,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>2015-16-423</t>
+          <t>2015-16-0423</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -53129,7 +53129,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>2015-16-423</t>
+          <t>2015-16-0423</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -53171,7 +53171,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>2015-16-424</t>
+          <t>2015-16-0424</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -53213,7 +53213,7 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>2015-16-424</t>
+          <t>2015-16-0424</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
@@ -53255,7 +53255,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>2015-16-424</t>
+          <t>2015-16-0424</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -53297,7 +53297,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>2015-16-424</t>
+          <t>2015-16-0424</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -53339,7 +53339,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>2015-16-425</t>
+          <t>2015-16-0425</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -53381,7 +53381,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>2015-16-425</t>
+          <t>2015-16-0425</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -53423,7 +53423,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>2015-16-425</t>
+          <t>2015-16-0425</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -53465,7 +53465,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>2015-16-426</t>
+          <t>2015-16-0426</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>2015-16-426</t>
+          <t>2015-16-0426</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -53549,7 +53549,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>2015-16-427</t>
+          <t>2015-16-0427</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -53591,7 +53591,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>2015-16-427</t>
+          <t>2015-16-0427</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -53633,7 +53633,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>2015-16-427</t>
+          <t>2015-16-0427</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -53675,7 +53675,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>2015-16-428</t>
+          <t>2015-16-0428</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -53717,7 +53717,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>2015-16-429</t>
+          <t>2015-16-0429</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -53759,7 +53759,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>2015-16-429</t>
+          <t>2015-16-0429</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -53801,7 +53801,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>2015-16-429</t>
+          <t>2015-16-0429</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -53843,7 +53843,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>2015-16-430</t>
+          <t>2015-16-0430</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -53885,7 +53885,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>2015-16-501</t>
+          <t>2015-16-0501</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -53927,7 +53927,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>2015-16-501</t>
+          <t>2015-16-0501</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -53969,7 +53969,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>2015-16-501</t>
+          <t>2015-16-0501</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -54011,7 +54011,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>2015-16-502</t>
+          <t>2015-16-0502</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -54053,7 +54053,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>2015-16-502</t>
+          <t>2015-16-0502</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -54095,7 +54095,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>2015-16-503</t>
+          <t>2015-16-0503</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -54137,7 +54137,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>2015-16-503</t>
+          <t>2015-16-0503</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -54179,7 +54179,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>2015-16-504</t>
+          <t>2015-16-0504</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -54221,7 +54221,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>2015-16-505</t>
+          <t>2015-16-0505</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -54263,7 +54263,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>2015-16-506</t>
+          <t>2015-16-0506</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -54305,7 +54305,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>2015-16-506</t>
+          <t>2015-16-0506</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -54347,7 +54347,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>2015-16-507</t>
+          <t>2015-16-0507</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -54389,7 +54389,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>2015-16-507</t>
+          <t>2015-16-0507</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -54431,7 +54431,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>2015-16-508</t>
+          <t>2015-16-0508</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -54473,7 +54473,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>2015-16-508</t>
+          <t>2015-16-0508</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -54515,7 +54515,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>2015-16-509</t>
+          <t>2015-16-0509</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
@@ -54557,7 +54557,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>2015-16-509</t>
+          <t>2015-16-0509</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -54599,7 +54599,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>2015-16-510</t>
+          <t>2015-16-0510</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -54641,7 +54641,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>2015-16-511</t>
+          <t>2015-16-0511</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -54683,7 +54683,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>2015-16-511</t>
+          <t>2015-16-0511</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -54725,7 +54725,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>2015-16-512</t>
+          <t>2015-16-0512</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -54767,7 +54767,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>2015-16-513</t>
+          <t>2015-16-0513</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -54809,7 +54809,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>2015-16-515</t>
+          <t>2015-16-0515</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -54851,7 +54851,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>2015-16-516</t>
+          <t>2015-16-0516</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -54893,7 +54893,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>2015-16-517</t>
+          <t>2015-16-0517</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -54935,7 +54935,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>2015-16-518</t>
+          <t>2015-16-0518</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -54977,7 +54977,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>2015-16-519</t>
+          <t>2015-16-0519</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -55019,7 +55019,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>2015-16-521</t>
+          <t>2015-16-0521</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -55061,7 +55061,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>2015-16-522</t>
+          <t>2015-16-0522</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -55103,7 +55103,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>2015-16-523</t>
+          <t>2015-16-0523</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -55145,7 +55145,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>2015-16-524</t>
+          <t>2015-16-0524</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -55187,7 +55187,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>2015-16-525</t>
+          <t>2015-16-0525</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -55229,7 +55229,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>2015-16-526</t>
+          <t>2015-16-0526</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -55271,7 +55271,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>2015-16-527</t>
+          <t>2015-16-0527</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
@@ -55313,7 +55313,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>2015-16-528</t>
+          <t>2015-16-0528</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -55355,7 +55355,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>2015-16-530</t>
+          <t>2015-16-0530</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -55397,7 +55397,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>2015-16-602</t>
+          <t>2015-16-0602</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -55439,7 +55439,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>2015-16-605</t>
+          <t>2015-16-0605</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -55481,7 +55481,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>2015-16-608</t>
+          <t>2015-16-0608</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -55523,7 +55523,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>2015-16-610</t>
+          <t>2015-16-0610</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -55565,7 +55565,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>2015-16-613</t>
+          <t>2015-16-0613</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -55607,7 +55607,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>2015-16-616</t>
+          <t>2015-16-0616</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -55649,7 +55649,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>2015-16-619</t>
+          <t>2015-16-0619</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">

--- a/Odds-Data-Clean/2015-16.xlsx
+++ b/Odds-Data-Clean/2015-16.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -674,7 +674,11 @@
           <t>2015-16-1028</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Chicago Bulls</t>
@@ -796,7 +800,11 @@
           <t>2015-16-1028</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -1343,7 +1351,11 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E24" t="n">
         <v>206</v>
       </c>
@@ -1549,7 +1561,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E29" t="n">
         <v>202</v>
       </c>
@@ -1881,7 +1897,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E37" t="n">
         <v>193</v>
       </c>
@@ -2208,7 +2228,11 @@
           <t>2015-16-1101</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>Denver Nuggets</t>
@@ -2372,7 +2396,11 @@
           <t>2015-16-1102</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>Milwaukee Bucks</t>
@@ -2415,7 +2443,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E50" t="n">
         <v>215</v>
       </c>
@@ -2999,7 +3031,11 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E64" t="n">
         <v>198</v>
       </c>
@@ -3116,7 +3152,11 @@
           <t>2015-16-1104</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>Toronto Raptors</t>
@@ -3285,7 +3325,11 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E71" t="n">
         <v>208</v>
       </c>
@@ -3528,7 +3572,11 @@
           <t>2015-16-1106</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -4075,7 +4123,11 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E90" t="n">
         <v>195</v>
       </c>
@@ -4402,7 +4454,11 @@
           <t>2015-16-1108</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
@@ -4781,7 +4837,11 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E107" t="n">
         <v>217.5</v>
       </c>
@@ -5365,7 +5425,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E121" t="n">
         <v>203.5</v>
       </c>
@@ -5860,7 +5924,11 @@
           <t>2015-16-1113</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
@@ -6071,7 +6139,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E138" t="n">
         <v>204.5</v>
       </c>
@@ -6361,7 +6433,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E145" t="n">
         <v>209</v>
       </c>
@@ -6562,7 +6638,11 @@
           <t>2015-16-1115</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>Boston Celtics</t>
@@ -6815,7 +6895,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E156" t="n">
         <v>200</v>
       </c>
@@ -6974,7 +7058,11 @@
           <t>2015-16-1117</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>Atlanta Hawks</t>
@@ -7311,7 +7399,11 @@
           <t>Charlotte Bobcats</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E168" t="n">
         <v>196.5</v>
       </c>
@@ -7386,7 +7478,11 @@
           <t>2015-16-1118</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
@@ -7807,7 +7903,11 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E180" t="n">
         <v>202</v>
       </c>
@@ -7882,7 +7982,11 @@
           <t>2015-16-1120</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>New York Knicks</t>
@@ -8592,7 +8696,11 @@
           <t>2015-16-1122</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>Boston Celtics</t>
@@ -8630,7 +8738,11 @@
           <t>2015-16-1122</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -9009,7 +9121,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E209" t="n">
         <v>197</v>
       </c>
@@ -9588,8 +9704,16 @@
           <t>2015-16-1125</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E223" t="n">
         <v>211.5</v>
       </c>
@@ -10042,7 +10166,11 @@
           <t>2015-16-1127</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>Detroit Pistons</t>
@@ -10337,7 +10465,11 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E241" t="n">
         <v>203</v>
       </c>
@@ -10706,7 +10838,11 @@
           <t>2015-16-1129</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>Detroit Pistons</t>
@@ -11085,7 +11221,11 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E259" t="n">
         <v>210</v>
       </c>
@@ -11328,7 +11468,11 @@
           <t>2015-16-1201</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
@@ -11875,7 +12019,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E278" t="n">
         <v>200.5</v>
       </c>
@@ -12123,7 +12271,11 @@
           <t>New York Knicks</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E284" t="n">
         <v>192</v>
       </c>
@@ -12870,7 +13022,11 @@
           <t>2015-16-1206</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -12950,7 +13106,11 @@
           <t>2015-16-1206</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
           <t>Sacramento Kings</t>
@@ -13450,7 +13610,11 @@
           <t>2015-16-1208</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>Houston Rockets</t>
@@ -13493,7 +13657,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E317" t="n">
         <v>204.5</v>
       </c>
@@ -14030,7 +14198,11 @@
           <t>2015-16-1210</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
@@ -14068,7 +14240,11 @@
           <t>2015-16-1210</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>Atlanta Hawks</t>
@@ -14489,7 +14665,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E341" t="n">
         <v>204</v>
       </c>
@@ -14648,7 +14828,11 @@
           <t>2015-16-1212</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>Los Angeles Clippers</t>
@@ -15148,7 +15332,11 @@
           <t>2015-16-1213</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D357" t="inlineStr">
         <is>
           <t>Utah Jazz</t>
@@ -15270,7 +15458,11 @@
           <t>2015-16-1214</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D360" t="inlineStr">
         <is>
           <t>Orlando Magic</t>
@@ -15896,7 +16088,11 @@
           <t>2015-16-1216</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr"/>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D375" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -16018,7 +16214,11 @@
           <t>2015-16-1216</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
@@ -16313,7 +16513,11 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr"/>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E385" t="n">
         <v>206.5</v>
       </c>
@@ -16435,7 +16639,11 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E388" t="n">
         <v>203</v>
       </c>
@@ -16888,7 +17096,11 @@
           <t>2015-16-1219</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D399" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -17094,7 +17306,11 @@
           <t>2015-16-1220</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D404" t="inlineStr">
         <is>
           <t>Minnesota Timberwolves</t>
@@ -17515,7 +17731,11 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E414" t="n">
         <v>197</v>
       </c>
@@ -17721,7 +17941,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E419" t="n">
         <v>208.5</v>
       </c>
@@ -18132,7 +18356,11 @@
           <t>2015-16-1223</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D429" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -18427,7 +18655,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr"/>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E436" t="n">
         <v>207</v>
       </c>
@@ -18502,7 +18734,11 @@
           <t>2015-16-1225</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr"/>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D438" t="inlineStr">
         <is>
           <t>Chicago Bulls</t>
@@ -18666,7 +18902,11 @@
           <t>2015-16-1226</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr">
         <is>
           <t>Washington Wizards</t>
@@ -19292,7 +19532,11 @@
           <t>2015-16-1227</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>Denver Nuggets</t>
@@ -19545,7 +19789,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E463" t="n">
         <v>194</v>
       </c>
@@ -19914,7 +20162,11 @@
           <t>2015-16-1229</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D472" t="inlineStr">
         <is>
           <t>Milwaukee Bucks</t>
@@ -20041,7 +20293,11 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E475" t="n">
         <v>199</v>
       </c>
@@ -20578,7 +20834,11 @@
           <t>2015-16-1231</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D488" t="inlineStr">
         <is>
           <t>Phoenix Suns</t>
@@ -20915,7 +21175,11 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr"/>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E496" t="n">
         <v>203.5</v>
       </c>
@@ -21037,7 +21301,11 @@
           <t>Charlotte Bobcats</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr"/>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E499" t="n">
         <v>208.5</v>
       </c>
@@ -21742,7 +22010,11 @@
           <t>2015-16-0104</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr"/>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D516" t="inlineStr">
         <is>
           <t>Boston Celtics</t>
@@ -21822,7 +22094,11 @@
           <t>2015-16-0104</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr"/>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D518" t="inlineStr">
         <is>
           <t>Sacramento Kings</t>
@@ -22280,7 +22556,11 @@
           <t>2015-16-0106</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr"/>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D529" t="inlineStr">
         <is>
           <t>Toronto Raptors</t>
@@ -22528,7 +22808,11 @@
           <t>2015-16-0106</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr"/>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D535" t="inlineStr">
         <is>
           <t>Memphis Grizzlies</t>
@@ -22818,7 +23102,11 @@
           <t>2015-16-0108</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr"/>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D542" t="inlineStr">
         <is>
           <t>Orlando Magic</t>
@@ -23155,7 +23443,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D550" t="inlineStr"/>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E550" t="n">
         <v>209.5</v>
       </c>
@@ -23319,7 +23611,11 @@
           <t>Detroit Pistons</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E554" t="n">
         <v>197.5</v>
       </c>
@@ -23777,7 +24073,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="D565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E565" t="n">
         <v>213.5</v>
       </c>
@@ -23852,7 +24152,11 @@
           <t>2015-16-0111</t>
         </is>
       </c>
-      <c r="C567" t="inlineStr"/>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D567" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -24189,7 +24493,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="D575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E575" t="n">
         <v>211.5</v>
       </c>
@@ -24390,7 +24698,11 @@
           <t>2015-16-0113</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr"/>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D580" t="inlineStr">
         <is>
           <t>New York Knicks</t>
@@ -24470,7 +24782,11 @@
           <t>2015-16-0113</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr"/>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D582" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -25012,7 +25328,11 @@
           <t>2015-16-0115</t>
         </is>
       </c>
-      <c r="C595" t="inlineStr"/>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D595" t="inlineStr">
         <is>
           <t>Minnesota Timberwolves</t>
@@ -25092,7 +25412,11 @@
           <t>2015-16-0115</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr"/>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D597" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
@@ -25429,7 +25753,11 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="D605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E605" t="n">
         <v>203</v>
       </c>
@@ -25756,7 +26084,11 @@
           <t>2015-16-0117</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr"/>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D613" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -26135,7 +26467,11 @@
           <t>Toronto Raptors</t>
         </is>
       </c>
-      <c r="D622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E622" t="n">
         <v>208</v>
       </c>
@@ -26425,7 +26761,11 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="D629" t="inlineStr"/>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E629" t="n">
         <v>212</v>
       </c>
@@ -26584,7 +26924,11 @@
           <t>2015-16-0120</t>
         </is>
       </c>
-      <c r="C633" t="inlineStr"/>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D633" t="inlineStr">
         <is>
           <t>Cleveland Cavaliers</t>
@@ -26748,7 +27092,11 @@
           <t>2015-16-0120</t>
         </is>
       </c>
-      <c r="C637" t="inlineStr"/>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D637" t="inlineStr">
         <is>
           <t>Charlotte Bobcats</t>
@@ -27164,7 +27512,11 @@
           <t>2015-16-0122</t>
         </is>
       </c>
-      <c r="C647" t="inlineStr"/>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D647" t="inlineStr">
         <is>
           <t>Utah Jazz</t>
@@ -27375,7 +27727,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E652" t="n">
         <v>206</v>
       </c>
@@ -27912,7 +28268,11 @@
           <t>2015-16-0124</t>
         </is>
       </c>
-      <c r="C665" t="inlineStr"/>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="n">
         <v>208.5</v>
@@ -28488,7 +28848,11 @@
           <t>2015-16-0126</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr"/>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D679" t="inlineStr">
         <is>
           <t>Miami Heat</t>
@@ -28531,7 +28895,11 @@
           <t>New York Knicks</t>
         </is>
       </c>
-      <c r="D680" t="inlineStr"/>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E680" t="n">
         <v>209.5</v>
       </c>
@@ -28905,7 +29273,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="D689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E689" t="n">
         <v>210</v>
       </c>
@@ -29442,7 +29814,11 @@
           <t>2015-16-0129</t>
         </is>
       </c>
-      <c r="C702" t="inlineStr"/>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D702" t="inlineStr">
         <is>
           <t>Houston Rockets</t>
@@ -29485,7 +29861,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E703" t="n">
         <v>199</v>
       </c>
@@ -29775,7 +30155,11 @@
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="D710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E710" t="n">
         <v>206</v>
       </c>
@@ -30270,7 +30654,11 @@
           <t>2015-16-0201</t>
         </is>
       </c>
-      <c r="C722" t="inlineStr"/>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D722" t="inlineStr">
         <is>
           <t>Detroit Pistons</t>
@@ -30392,7 +30780,11 @@
           <t>2015-16-0201</t>
         </is>
       </c>
-      <c r="C725" t="inlineStr"/>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D725" t="inlineStr">
         <is>
           <t>Washington Wizards</t>
@@ -30892,7 +31284,11 @@
           <t>2015-16-0203</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr"/>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D737" t="inlineStr">
         <is>
           <t>Indiana Pacers</t>
@@ -30972,7 +31368,11 @@
           <t>2015-16-0203</t>
         </is>
       </c>
-      <c r="C739" t="inlineStr"/>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D739" t="inlineStr">
         <is>
           <t>Orlando Magic</t>
@@ -31682,7 +32082,11 @@
           <t>2015-16-0205</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr"/>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D756" t="inlineStr">
         <is>
           <t>Sacramento Kings</t>
@@ -32019,7 +32423,11 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="D764" t="inlineStr"/>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E764" t="n">
         <v>203</v>
       </c>
@@ -32225,7 +32633,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D769" t="inlineStr"/>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E769" t="n">
         <v>232</v>
       </c>
@@ -32594,7 +33006,11 @@
           <t>2015-16-0208</t>
         </is>
       </c>
-      <c r="C778" t="inlineStr"/>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D778" t="inlineStr">
         <is>
           <t>Denver Nuggets</t>
@@ -32805,7 +33221,11 @@
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="D783" t="inlineStr"/>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E783" t="n">
         <v>216</v>
       </c>
@@ -33216,7 +33636,11 @@
           <t>2015-16-0210</t>
         </is>
       </c>
-      <c r="C793" t="inlineStr"/>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D793" t="inlineStr">
         <is>
           <t>Memphis Grizzlies</t>
@@ -33548,7 +33972,11 @@
           <t>2015-16-0211</t>
         </is>
       </c>
-      <c r="C801" t="inlineStr"/>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D801" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
@@ -33838,7 +34266,11 @@
           <t>2015-16-0219</t>
         </is>
       </c>
-      <c r="C808" t="inlineStr"/>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D808" t="inlineStr">
         <is>
           <t>New York Knicks</t>
@@ -33960,7 +34392,11 @@
           <t>2015-16-0219</t>
         </is>
       </c>
-      <c r="C811" t="inlineStr"/>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D811" t="inlineStr">
         <is>
           <t>Indiana Pacers</t>
@@ -34502,7 +34938,11 @@
           <t>2015-16-0221</t>
         </is>
       </c>
-      <c r="C824" t="inlineStr"/>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D824" t="inlineStr">
         <is>
           <t>Cleveland Cavaliers</t>
@@ -34750,7 +35190,11 @@
           <t>2015-16-0221</t>
         </is>
       </c>
-      <c r="C830" t="inlineStr"/>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D830" t="inlineStr">
         <is>
           <t>Charlotte Bobcats</t>
@@ -35381,7 +35825,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="D845" t="inlineStr"/>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E845" t="n">
         <v>209.5</v>
       </c>
@@ -35713,7 +36161,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D853" t="inlineStr"/>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E853" t="n">
         <v>216</v>
       </c>
@@ -35919,7 +36371,11 @@
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="D858" t="inlineStr"/>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E858" t="n">
         <v>221.5</v>
       </c>
@@ -35957,7 +36413,11 @@
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="D859" t="inlineStr"/>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E859" t="n">
         <v>208.5</v>
       </c>
@@ -36620,7 +37080,11 @@
           <t>2015-16-0227</t>
         </is>
       </c>
-      <c r="C875" t="inlineStr"/>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D875" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -36663,7 +37127,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="D876" t="inlineStr"/>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E876" t="n">
         <v>195</v>
       </c>
@@ -37247,7 +37715,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="D890" t="inlineStr"/>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E890" t="n">
         <v>228.5</v>
       </c>
@@ -37285,7 +37757,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="D891" t="inlineStr"/>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E891" t="n">
         <v>210</v>
       </c>
@@ -37491,7 +37967,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="D896" t="inlineStr"/>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E896" t="n">
         <v>213.5</v>
       </c>
@@ -37991,7 +38471,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="D908" t="inlineStr"/>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E908" t="n">
         <v>221</v>
       </c>
@@ -38155,7 +38639,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D912" t="inlineStr"/>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E912" t="n">
         <v>233</v>
       </c>
@@ -38529,7 +39017,11 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="D921" t="inlineStr"/>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E921" t="n">
         <v>209</v>
       </c>
@@ -38777,7 +39269,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="D927" t="inlineStr"/>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E927" t="n">
         <v>214</v>
       </c>
@@ -38983,7 +39479,11 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="D932" t="inlineStr"/>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E932" t="n">
         <v>219</v>
       </c>
@@ -39525,7 +40025,11 @@
           <t>Toronto Raptors</t>
         </is>
       </c>
-      <c r="D945" t="inlineStr"/>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E945" t="n">
         <v>208</v>
       </c>
@@ -39978,7 +40482,11 @@
           <t>2015-16-0309</t>
         </is>
       </c>
-      <c r="C956" t="inlineStr"/>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D956" t="inlineStr">
         <is>
           <t>Los Angeles Clippers</t>
@@ -40315,7 +40823,11 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="D964" t="inlineStr"/>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E964" t="n">
         <v>212.5</v>
       </c>
@@ -40474,7 +40986,11 @@
           <t>2015-16-0311</t>
         </is>
       </c>
-      <c r="C968" t="inlineStr"/>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D968" t="inlineStr">
         <is>
           <t>Minnesota Timberwolves</t>
@@ -40979,7 +41495,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D980" t="inlineStr"/>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E980" t="n">
         <v>213</v>
       </c>
@@ -41264,7 +41784,11 @@
           <t>2015-16-0313</t>
         </is>
       </c>
-      <c r="C987" t="inlineStr"/>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D987" t="inlineStr">
         <is>
           <t>Milwaukee Bucks</t>
@@ -41554,7 +42078,11 @@
           <t>2015-16-0314</t>
         </is>
       </c>
-      <c r="C994" t="inlineStr"/>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D994" t="inlineStr">
         <is>
           <t>Portland Trail Blazers</t>
@@ -41802,7 +42330,11 @@
           <t>2015-16-0315</t>
         </is>
       </c>
-      <c r="C1000" t="inlineStr"/>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1000" t="inlineStr">
         <is>
           <t>Philadelphia 76ers</t>
@@ -42097,7 +42629,11 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1007" t="n">
         <v>221</v>
       </c>
@@ -42555,7 +43091,11 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="D1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1018" t="n">
         <v>211</v>
       </c>
@@ -42677,7 +43217,11 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1021" t="n">
         <v>220</v>
       </c>
@@ -43051,7 +43595,11 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="D1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1030" t="n">
         <v>211</v>
       </c>
@@ -43089,7 +43637,11 @@
           <t>Detroit Pistons</t>
         </is>
       </c>
-      <c r="D1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1031" t="n">
         <v>211</v>
       </c>
@@ -44004,7 +44556,11 @@
           <t>2015-16-0322</t>
         </is>
       </c>
-      <c r="C1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1053" t="inlineStr">
         <is>
           <t>Charlotte Bobcats</t>
@@ -44042,7 +44598,11 @@
           <t>2015-16-0322</t>
         </is>
       </c>
-      <c r="C1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1054" t="inlineStr">
         <is>
           <t>Houston Rockets</t>
@@ -44710,7 +45270,11 @@
           <t>2015-16-0324</t>
         </is>
       </c>
-      <c r="C1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1070" t="inlineStr">
         <is>
           <t>Cleveland Cavaliers</t>
@@ -44790,7 +45354,11 @@
           <t>2015-16-0324</t>
         </is>
       </c>
-      <c r="C1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1072" t="inlineStr">
         <is>
           <t>Utah Jazz</t>
@@ -45248,7 +45816,11 @@
           <t>2015-16-0326</t>
         </is>
       </c>
-      <c r="C1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1083" t="inlineStr">
         <is>
           <t>Indiana Pacers</t>
@@ -45496,7 +46068,11 @@
           <t>2015-16-0326</t>
         </is>
       </c>
-      <c r="C1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1089" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -45875,7 +46451,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="D1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1098" t="n">
         <v>212</v>
       </c>
@@ -45913,7 +46493,11 @@
           <t>Toronto Raptors</t>
         </is>
       </c>
-      <c r="D1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1099" t="n">
         <v>212</v>
       </c>
@@ -46287,7 +46871,11 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="D1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1108" t="n">
         <v>212</v>
       </c>
@@ -46409,7 +46997,11 @@
           <t>Detroit Pistons</t>
         </is>
       </c>
-      <c r="D1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1111" t="n">
         <v>216.5</v>
       </c>
@@ -46951,7 +47543,11 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="D1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1124" t="n">
         <v>211.5</v>
       </c>
@@ -47068,7 +47664,11 @@
           <t>2015-16-0331</t>
         </is>
       </c>
-      <c r="C1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1127" t="inlineStr">
         <is>
           <t>Los Angeles Clippers</t>
@@ -47195,7 +47795,11 @@
           <t>New York Knicks</t>
         </is>
       </c>
-      <c r="D1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1130" t="n">
         <v>202</v>
       </c>
@@ -47774,7 +48378,11 @@
           <t>2015-16-0403</t>
         </is>
       </c>
-      <c r="C1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1144" t="inlineStr">
         <is>
           <t>New Orleans Pelicans</t>
@@ -47901,7 +48509,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="D1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1147" t="n">
         <v>222.5</v>
       </c>
@@ -48527,7 +49139,11 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="D1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1162" t="n">
         <v>219</v>
       </c>
@@ -48691,7 +49307,11 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="D1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1166" t="n">
         <v>208</v>
       </c>
@@ -48939,7 +49559,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="D1172" t="inlineStr"/>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1172" t="n">
         <v>221</v>
       </c>
@@ -49229,7 +49853,11 @@
           <t>Charlotte Bobcats</t>
         </is>
       </c>
-      <c r="D1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1179" t="n">
         <v>203</v>
       </c>
@@ -49855,7 +50483,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="D1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1194" t="n">
         <v>227</v>
       </c>
@@ -50103,7 +50735,11 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="E1200" t="n">
         <v>204</v>
       </c>
@@ -50388,7 +51024,11 @@
           <t>2015-16-0411</t>
         </is>
       </c>
-      <c r="C1207" t="inlineStr"/>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1207" t="inlineStr">
         <is>
           <t>Washington Wizards</t>
@@ -50426,7 +51066,11 @@
           <t>2015-16-0411</t>
         </is>
       </c>
-      <c r="C1208" t="inlineStr"/>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1208" t="inlineStr">
         <is>
           <t>Los Angeles Lakers</t>
@@ -50763,7 +51407,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1216" t="inlineStr"/>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1216" t="n">
         <v>206</v>
       </c>
@@ -50964,7 +51612,11 @@
           <t>2015-16-0413</t>
         </is>
       </c>
-      <c r="C1221" t="inlineStr"/>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Brooklyn Nets</t>
+        </is>
+      </c>
       <c r="D1221" t="inlineStr">
         <is>
           <t>Toronto Raptors</t>
@@ -51548,7 +52200,11 @@
           <t>2015-16-0416</t>
         </is>
       </c>
-      <c r="C1235" t="inlineStr"/>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1235" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -51796,7 +52452,11 @@
           <t>2015-16-0418</t>
         </is>
       </c>
-      <c r="C1241" t="inlineStr"/>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1241" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -52091,7 +52751,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D1248" t="inlineStr"/>
+      <c r="D1248" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1248" t="n">
         <v>198</v>
       </c>
@@ -52423,7 +53087,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="D1256" t="inlineStr"/>
+      <c r="D1256" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1256" t="n">
         <v>201.5</v>
       </c>
@@ -52708,7 +53376,11 @@
           <t>2015-16-0425</t>
         </is>
       </c>
-      <c r="C1263" t="inlineStr"/>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1263" t="inlineStr">
         <is>
           <t>Dallas Mavericks</t>
@@ -53171,7 +53843,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1274" t="inlineStr"/>
+      <c r="D1274" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1274" t="n">
         <v>201</v>
       </c>
@@ -53377,7 +54053,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1279" t="inlineStr"/>
+      <c r="D1279" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1279" t="n">
         <v>202</v>
       </c>
@@ -53620,7 +54300,11 @@
           <t>2015-16-0506</t>
         </is>
       </c>
-      <c r="C1285" t="inlineStr"/>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1285" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -53784,7 +54468,11 @@
           <t>2015-16-0508</t>
         </is>
       </c>
-      <c r="C1289" t="inlineStr"/>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1289" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -53911,7 +54599,11 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="D1292" t="inlineStr"/>
+      <c r="D1292" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1292" t="n">
         <v>200</v>
       </c>
@@ -54028,7 +54720,11 @@
           <t>2015-16-0512</t>
         </is>
       </c>
-      <c r="C1295" t="inlineStr"/>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1295" t="inlineStr">
         <is>
           <t>San Antonio Spurs</t>
@@ -54155,7 +54851,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D1298" t="inlineStr"/>
+      <c r="D1298" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1298" t="n">
         <v>222.5</v>
       </c>
@@ -54235,7 +54935,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D1300" t="inlineStr"/>
+      <c r="D1300" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1300" t="n">
         <v>222</v>
       </c>
@@ -54352,7 +55056,11 @@
           <t>2015-16-0522</t>
         </is>
       </c>
-      <c r="C1303" t="inlineStr"/>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1303" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -54432,7 +55140,11 @@
           <t>2015-16-0524</t>
         </is>
       </c>
-      <c r="C1305" t="inlineStr"/>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1305" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -54517,7 +55229,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D1307" t="inlineStr"/>
+      <c r="D1307" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1307" t="n">
         <v>221</v>
       </c>
@@ -54592,7 +55308,11 @@
           <t>2015-16-0528</t>
         </is>
       </c>
-      <c r="C1309" t="inlineStr"/>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="D1309" t="inlineStr">
         <is>
           <t>Golden State Warriors</t>
@@ -54635,7 +55355,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="D1310" t="inlineStr"/>
+      <c r="D1310" t="inlineStr">
+        <is>
+          <t>Oklahoma City Thunder</t>
+        </is>
+      </c>
       <c r="E1310" t="n">
         <v>219.5</v>
       </c>
@@ -54954,6 +55678,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>